--- a/ETC_GS_Combined_BOM.xlsx
+++ b/ETC_GS_Combined_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="0" windowWidth="16320" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="16240" yWindow="0" windowWidth="16340" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
   <si>
     <t>value</t>
   </si>
@@ -257,9 +257,6 @@
     <t>PRICE PER UNIT</t>
   </si>
   <si>
-    <t>Serial interconnect socket</t>
-  </si>
-  <si>
     <t>PURCHASE THROUGH DIGIKEY - ALLEGRO ACS722LLCTR-05AB-T</t>
   </si>
   <si>
@@ -294,6 +291,24 @@
   </si>
   <si>
     <t>E14</t>
+  </si>
+  <si>
+    <t>MTA-100 serial</t>
+  </si>
+  <si>
+    <t>MTA-100 plug 26AWG</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>5 core display cable 22 AWG</t>
+  </si>
+  <si>
+    <t>display header</t>
+  </si>
+  <si>
+    <t>Alternate TMR 1211</t>
   </si>
 </sst>
 </file>
@@ -899,10 +914,10 @@
       <sheetName val="Pivot"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="5">
           <cell r="A5">
@@ -2231,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I58"/>
+  <dimension ref="A3:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2270,7 +2285,7 @@
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
         <v>75</v>
@@ -2279,7 +2294,7 @@
         <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2305,10 +2320,10 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2359,7 +2374,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2379,7 +2394,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2399,7 +2414,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2419,7 +2434,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2436,16 +2451,16 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12">
         <v>1.46</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2458,7 +2473,21 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>588600</v>
+      </c>
+      <c r="G13">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
@@ -2483,7 +2512,7 @@
         <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2514,7 +2543,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2537,7 +2566,7 @@
         <v>0.98899999999999999</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2574,7 +2603,7 @@
         <v>1.88</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2588,10 +2617,19 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2414111</v>
+      </c>
+      <c r="G20">
+        <v>0.26200000000000001</v>
       </c>
       <c r="H20" t="s">
         <v>73</v>
+      </c>
+      <c r="I20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2607,6 +2645,15 @@
       <c r="D21">
         <v>2</v>
       </c>
+      <c r="F21">
+        <v>2333590</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" t="s">
@@ -2618,6 +2665,15 @@
       <c r="D22">
         <v>2</v>
       </c>
+      <c r="F22" s="4">
+        <v>1646697</v>
+      </c>
+      <c r="G22">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
@@ -2632,8 +2688,17 @@
       <c r="D23">
         <v>4</v>
       </c>
+      <c r="F23" s="4">
+        <v>588581</v>
+      </c>
+      <c r="G23">
+        <v>0.33100000000000002</v>
+      </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>88</v>
+      </c>
+      <c r="I23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2649,6 +2714,15 @@
       <c r="D24">
         <v>4</v>
       </c>
+      <c r="F24" s="4">
+        <v>2332114</v>
+      </c>
+      <c r="G24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25">
@@ -2660,6 +2734,15 @@
       <c r="D25">
         <v>4</v>
       </c>
+      <c r="F25" s="4">
+        <v>2332118</v>
+      </c>
+      <c r="G25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26">
@@ -2671,6 +2754,15 @@
       <c r="D26">
         <v>2</v>
       </c>
+      <c r="F26" s="4">
+        <v>1692544</v>
+      </c>
+      <c r="G26">
+        <v>0.04</v>
+      </c>
+      <c r="I26" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27">
@@ -2682,6 +2774,15 @@
       <c r="D27">
         <v>4</v>
       </c>
+      <c r="F27" s="4">
+        <v>2332120</v>
+      </c>
+      <c r="G27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28">
@@ -2693,6 +2794,15 @@
       <c r="D28">
         <v>2</v>
       </c>
+      <c r="F28" s="4">
+        <v>1630578</v>
+      </c>
+      <c r="G28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29">
@@ -2704,6 +2814,15 @@
       <c r="D29">
         <v>12</v>
       </c>
+      <c r="F29" s="4">
+        <v>1470003</v>
+      </c>
+      <c r="G29">
+        <v>0.04</v>
+      </c>
+      <c r="I29" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30">
@@ -2715,6 +2834,15 @@
       <c r="D30">
         <v>2</v>
       </c>
+      <c r="F30" s="4">
+        <v>1632597</v>
+      </c>
+      <c r="G30">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" t="s">
@@ -2726,6 +2854,15 @@
       <c r="D31">
         <v>30</v>
       </c>
+      <c r="F31" s="4">
+        <v>1632523</v>
+      </c>
+      <c r="G31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" t="s">
@@ -2737,8 +2874,17 @@
       <c r="D32">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="F32" s="4">
+        <v>1811972</v>
+      </c>
+      <c r="G32">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
         <v>11</v>
       </c>
@@ -2748,8 +2894,17 @@
       <c r="D33">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="F33" s="4">
+        <v>1632543</v>
+      </c>
+      <c r="G33">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
         <v>14</v>
       </c>
@@ -2759,8 +2914,17 @@
       <c r="D34">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="F34" s="4">
+        <v>1632579</v>
+      </c>
+      <c r="G34">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
         <v>15</v>
       </c>
@@ -2770,8 +2934,17 @@
       <c r="D35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="F35" s="4">
+        <v>2142268</v>
+      </c>
+      <c r="G35">
+        <v>0.02</v>
+      </c>
+      <c r="I35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
         <v>17</v>
       </c>
@@ -2781,8 +2954,17 @@
       <c r="D36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="F36" s="4">
+        <v>1158086</v>
+      </c>
+      <c r="G36">
+        <v>0.05</v>
+      </c>
+      <c r="I36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
         <v>19</v>
       </c>
@@ -2792,8 +2974,17 @@
       <c r="D37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="F37" s="4">
+        <v>1153324</v>
+      </c>
+      <c r="G37">
+        <v>0.23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -2807,10 +2998,10 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -2823,8 +3014,17 @@
       <c r="D39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="F39" s="4">
+        <v>1045451</v>
+      </c>
+      <c r="G39">
+        <v>2.96</v>
+      </c>
+      <c r="I39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -2837,8 +3037,17 @@
       <c r="D40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="F40">
+        <v>2313197</v>
+      </c>
+      <c r="G40">
+        <v>22.63</v>
+      </c>
+      <c r="I40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -2851,11 +3060,20 @@
       <c r="D41">
         <v>2</v>
       </c>
+      <c r="F41" s="4">
+        <v>1652366</v>
+      </c>
+      <c r="G41">
+        <v>0.95299999999999996</v>
+      </c>
       <c r="H41" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -2868,8 +3086,17 @@
       <c r="D42">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="F42" s="4">
+        <v>1459098</v>
+      </c>
+      <c r="G42">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
         <v>33</v>
       </c>
@@ -2879,8 +3106,17 @@
       <c r="D43">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="F43" s="4">
+        <v>1459099</v>
+      </c>
+      <c r="G43">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2893,8 +3129,17 @@
       <c r="D44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="F44">
+        <v>1524325</v>
+      </c>
+      <c r="G44">
+        <v>2.21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
         <v>27</v>
       </c>
@@ -2904,8 +3149,17 @@
       <c r="D45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="F45">
+        <v>1524325</v>
+      </c>
+      <c r="G45">
+        <v>2.21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2919,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2932,8 +3186,17 @@
       <c r="D47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="F47">
+        <v>9846530</v>
+      </c>
+      <c r="G47">
+        <v>2.67</v>
+      </c>
+      <c r="I47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -2945,6 +3208,18 @@
       </c>
       <c r="D48">
         <v>3</v>
+      </c>
+      <c r="F48">
+        <v>1205065</v>
+      </c>
+      <c r="G48">
+        <v>25.3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2960,6 +3235,12 @@
       <c r="D49">
         <v>2</v>
       </c>
+      <c r="F49">
+        <v>2315261</v>
+      </c>
+      <c r="G49">
+        <v>6.51</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
@@ -2972,7 +3253,13 @@
         <v>5</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2493625</v>
+      </c>
+      <c r="G50">
+        <v>0.66</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2986,7 +3273,13 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2493626</v>
+      </c>
+      <c r="G51">
+        <v>0.98</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3000,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3035,12 +3328,12 @@
       </c>
       <c r="D55">
         <f>SUM(D5:D54)</f>
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="D56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3054,21 +3347,60 @@
         <v>1.58</v>
       </c>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="F58" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G58" s="5">
         <v>15.09</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="F59" s="4">
+        <v>1098711</v>
+      </c>
+      <c r="G59">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H59" t="s">
+        <v>89</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="F60" s="4">
+        <v>1773007</v>
+      </c>
+      <c r="G60">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="H61" t="s">
+        <v>91</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3078,6 +3410,32 @@
     <hyperlink ref="F14" r:id="rId4" tooltip="1687497" display="http://au.element14.com/multicomp/1sma4740/diode-zener-10v-1w/dp/1687497"/>
     <hyperlink ref="F16" r:id="rId5" tooltip="1383892" display="http://au.element14.com/nte-electronics/1n4004/standard-diode-1a-400v-do-41/dp/1383892"/>
     <hyperlink ref="F17" r:id="rId6" tooltip="2346630" display="http://au.element14.com/rubycon/200px47mefc10x20/product-range-px-series/dp/2346630"/>
+    <hyperlink ref="F20" r:id="rId7" tooltip="2414111" display="http://au.element14.com/panasonic-electronic-components/erb-rg0r50v/fuse-500ma-63vdc-fast-acting-1206/dp/2414111"/>
+    <hyperlink ref="F22" r:id="rId8" tooltip="1646697" display="http://au.element14.com/multicomp/mc1206s4f3001t5e/resistor-thick-film-3kohm-0-25w/dp/1646697"/>
+    <hyperlink ref="F23" r:id="rId9" tooltip="588581" display="http://au.element14.com/te-connectivity-amp/640456-3/product-range-mta-100-series/dp/588581"/>
+    <hyperlink ref="F59" r:id="rId10" tooltip="1098711" display="http://au.element14.com/te-connectivity-amp/3-640442-3/housing-26awg-3way/dp/1098711"/>
+    <hyperlink ref="F13" r:id="rId11" tooltip="588600" display="http://au.element14.com/te-connectivity-amp/640456-5/product-range-mta-100-series/dp/588600"/>
+    <hyperlink ref="F60" r:id="rId12" tooltip="1773007" display="http://au.element14.com/te-connectivity-amp/3-643813-5/connector-mta-100-5way/dp/1773007"/>
+    <hyperlink ref="F24" r:id="rId13" tooltip="2332114" display="http://au.element14.com/te-connectivity/crgh1206f15r/resistor-power-15r-0-5w-1-1206/dp/2332114"/>
+    <hyperlink ref="F25" r:id="rId14" tooltip="2332118" display="http://au.element14.com/te-connectivity/crgh1206f27r/resistor-power-27r-0-5w-1-1206/dp/2332118"/>
+    <hyperlink ref="F26" r:id="rId15" tooltip="1692544" display="http://au.element14.com/vishay-draloric/crcw120633r0fkea/product-range-aec-q200-crcw-series/dp/1692544"/>
+    <hyperlink ref="F27" r:id="rId16" tooltip="2332120" display="http://au.element14.com/te-connectivity/crgh1206f39r/resistor-power-39r-0-5w-1-1206/dp/2332120"/>
+    <hyperlink ref="F28" r:id="rId17" tooltip="1630578" display="http://au.element14.com/multicomp/mc1206s4f2400t5e/thick-film-resistor-240-ohm-250mw/dp/1630578"/>
+    <hyperlink ref="F29" r:id="rId18" tooltip="1470003" display="http://au.element14.com/vishay-draloric/crcw1206270rfkea/product-range-aec-q200-crcw-series/dp/1470003"/>
+    <hyperlink ref="F30" r:id="rId19" tooltip="1632597" display="http://au.element14.com/multicomp/mc1206s4f6800t5e/thick-film-resistor-680-ohm-250mw/dp/1632597"/>
+    <hyperlink ref="F31" r:id="rId20" tooltip="1632523" display="http://au.element14.com/multicomp/mc1206s4f1002t5e/thick-film-resistor-10kohm-250mw/dp/1632523"/>
+    <hyperlink ref="F32" r:id="rId21" tooltip="1811972" display="http://au.element14.com/koa-spear-electronics/rk73h2bttd1001f/resistor-1206-1k-ohm-1/dp/1811972"/>
+    <hyperlink ref="F33" r:id="rId22" tooltip="1632543" display="http://au.element14.com/multicomp/mc1206s4f2002t5e/thick-film-resistor-20kohm-250mw/dp/1632543"/>
+    <hyperlink ref="F34" r:id="rId23" tooltip="1632579" display="http://au.element14.com/multicomp/mc1206s4f4701t5e/thick-film-resistor-4-7kohm-250mw/dp/1632579"/>
+    <hyperlink ref="F35" r:id="rId24" tooltip="2142268" display="http://au.element14.com/multicomp/mc0125w1206140k2/resistor-40k2-0-125w-1-1206/dp/2142268"/>
+    <hyperlink ref="F36" r:id="rId25" tooltip="1158086" display="http://au.element14.com/vishay-dale/crcw120656k0fkea/thick-film-resistor-56kohm-250mw/dp/1158086"/>
+    <hyperlink ref="F37" r:id="rId26" tooltip="1153324" display="http://au.element14.com/vishay-dale/crcw12069k10fkea/thick-film-resistor-9-1kohm-250mw/dp/1153324"/>
+    <hyperlink ref="F39" r:id="rId27" tooltip="1045451" display="http://au.element14.com/vishay/ild213t/optocoupler-smd-dual/dp/1045451"/>
+    <hyperlink ref="F41" r:id="rId28" tooltip="1652366" display="http://au.element14.com/on-semiconductor/ncp1117st33t3g/ic-linear-voltage-regulator/dp/1652366"/>
+    <hyperlink ref="F42" r:id="rId29" tooltip="1459098" display="http://au.element14.com/on-semiconductor/mmbt2222alt1g/transistor-npn-40v-sot-23/dp/1459098"/>
+    <hyperlink ref="F43" r:id="rId30" tooltip="1459099" display="http://au.element14.com/on-semiconductor/mmbt2907alt1g/transistor-bjt-pnp-60v-0-6a-sot/dp/1459099"/>
+    <hyperlink ref="F51" r:id="rId31" tooltip="2493626" display="http://au.element14.com/camdenboss/ctb0709-3/terminal-block-wire-to-brd-3pos/dp/2493626"/>
+    <hyperlink ref="F50" r:id="rId32" tooltip="2493625" display="http://au.element14.com/camdenboss/ctb0709-2/terminal-block-wire-to-brd-2pos/dp/2493625"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ETC_GS_Combined_BOM.xlsx
+++ b/ETC_GS_Combined_BOM.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16240" yWindow="0" windowWidth="16340" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="2" r:id="rId1"/>
     <sheet name="combined" sheetId="1" r:id="rId2"/>
+    <sheet name="RS order" sheetId="3" r:id="rId3"/>
+    <sheet name="RS simplified" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'RS order'!$A$1:$G$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'RS order'!$A$1:$H$51</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="147">
   <si>
     <t>value</t>
   </si>
@@ -299,9 +305,6 @@
     <t>MTA-100 plug 26AWG</t>
   </si>
   <si>
-    <t>3m</t>
-  </si>
-  <si>
     <t>5 core display cable 22 AWG</t>
   </si>
   <si>
@@ -309,13 +312,175 @@
   </si>
   <si>
     <t>Alternate TMR 1211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 ribbon cable </t>
+  </si>
+  <si>
+    <t>digikey</t>
+  </si>
+  <si>
+    <t>supp</t>
+  </si>
+  <si>
+    <t>supp#</t>
+  </si>
+  <si>
+    <t>ppu</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>orderqty</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>588544,2,1X10_LOCK(blan</t>
+  </si>
+  <si>
+    <t>1867950,10,C12060.1uF</t>
+  </si>
+  <si>
+    <t>4801880,4,10n</t>
+  </si>
+  <si>
+    <t>1759337,10,1nF</t>
+  </si>
+  <si>
+    <t>1759438,4,1uF</t>
+  </si>
+  <si>
+    <t>588600,1,DISP_CONNDISP_</t>
+  </si>
+  <si>
+    <t>1687497,4,DO214BA0</t>
+  </si>
+  <si>
+    <t>1383892,2,DO41-101N400</t>
+  </si>
+  <si>
+    <t>2346630,2,E5-8,547uF</t>
+  </si>
+  <si>
+    <t>1749287,4,JEDECDO-214ABLNBTV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2414111,10,LED-1206FUSE </t>
+  </si>
+  <si>
+    <t>2333590,2,M12062k</t>
+  </si>
+  <si>
+    <t>1646697,2,3k</t>
+  </si>
+  <si>
+    <t>588581,4,MOLEX-1X3_LOCKSER</t>
+  </si>
+  <si>
+    <t>2332114,4,R120615</t>
+  </si>
+  <si>
+    <t>2332118,4,27</t>
+  </si>
+  <si>
+    <t>1692544,2,33</t>
+  </si>
+  <si>
+    <t>2332120,4,39</t>
+  </si>
+  <si>
+    <t>1630578,2,240</t>
+  </si>
+  <si>
+    <t>1470003,12,270</t>
+  </si>
+  <si>
+    <t>1632597,2,680</t>
+  </si>
+  <si>
+    <t>1632523,30,10k</t>
+  </si>
+  <si>
+    <t>1811972,16,1k</t>
+  </si>
+  <si>
+    <t>1632543,12,20k</t>
+  </si>
+  <si>
+    <t>1632579,14,4.7k</t>
+  </si>
+  <si>
+    <t>2142268,4,40k</t>
+  </si>
+  <si>
+    <t>1158086,2,56k</t>
+  </si>
+  <si>
+    <t>1153324,2,9k1</t>
+  </si>
+  <si>
+    <t>1045451,8,SO08-2OPTOI</t>
+  </si>
+  <si>
+    <t>1652366,2,SOT223V_REG</t>
+  </si>
+  <si>
+    <t>1459098,12,SOT23-3NPN_T</t>
+  </si>
+  <si>
+    <t>1459099,12,PNP_T</t>
+  </si>
+  <si>
+    <t>1524325,2,SWITCH-SPDT_KITDIRTY</t>
+  </si>
+  <si>
+    <t>1524325,4,LOGIC</t>
+  </si>
+  <si>
+    <t>9846530,4,TO220VMOSFE</t>
+  </si>
+  <si>
+    <t>2315261,2,W237-12P0</t>
+  </si>
+  <si>
+    <t>2493625,12,W237-1320</t>
+  </si>
+  <si>
+    <t>2493626,12,W237-1330</t>
+  </si>
+  <si>
+    <t>4534633,1,ZDIO-7.57.5V</t>
+  </si>
+  <si>
+    <t>1296705,4,</t>
+  </si>
+  <si>
+    <t>1098711,2,</t>
+  </si>
+  <si>
+    <t>1773007,2,</t>
+  </si>
+  <si>
+    <t>1387715,3,</t>
+  </si>
+  <si>
+    <t>1301033,2,</t>
+  </si>
+  <si>
+    <t>1205065,2,TRACOPOWERTRACO</t>
+  </si>
+  <si>
+    <t>2313197,2,SO8STRETCHACPLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,6 +508,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1634,7 +1805,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C55" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2246,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I61"/>
+  <dimension ref="A3:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2483,7 +2654,7 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s">
         <v>87</v>
@@ -3216,7 +3387,7 @@
         <v>25.3</v>
       </c>
       <c r="H48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I48" t="s">
         <v>87</v>
@@ -3241,6 +3412,9 @@
       <c r="G49">
         <v>6.51</v>
       </c>
+      <c r="I49" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
@@ -3261,6 +3435,9 @@
       <c r="G50">
         <v>0.66</v>
       </c>
+      <c r="I50" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
@@ -3281,6 +3458,9 @@
       <c r="G51">
         <v>0.98</v>
       </c>
+      <c r="I51" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
@@ -3309,6 +3489,15 @@
       <c r="D53">
         <v>1</v>
       </c>
+      <c r="F53">
+        <v>4534633</v>
+      </c>
+      <c r="G53">
+        <v>0.188</v>
+      </c>
+      <c r="I53" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
@@ -3354,6 +3543,9 @@
       </c>
     </row>
     <row r="58" spans="1:9">
+      <c r="D58">
+        <v>1</v>
+      </c>
       <c r="F58" s="5" t="s">
         <v>85</v>
       </c>
@@ -3368,6 +3560,9 @@
       </c>
     </row>
     <row r="59" spans="1:9">
+      <c r="D59">
+        <v>2</v>
+      </c>
       <c r="F59" s="4">
         <v>1098711</v>
       </c>
@@ -3382,6 +3577,9 @@
       </c>
     </row>
     <row r="60" spans="1:9">
+      <c r="D60">
+        <v>2</v>
+      </c>
       <c r="F60" s="4">
         <v>1773007</v>
       </c>
@@ -3396,11 +3594,37 @@
       </c>
     </row>
     <row r="61" spans="1:9">
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1387715</v>
+      </c>
+      <c r="G61">
+        <v>5.05</v>
+      </c>
       <c r="H61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1301033</v>
+      </c>
+      <c r="G62">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H62" t="s">
+        <v>93</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3436,6 +3660,8 @@
     <hyperlink ref="F43" r:id="rId30" tooltip="1459099" display="http://au.element14.com/on-semiconductor/mmbt2907alt1g/transistor-bjt-pnp-60v-0-6a-sot/dp/1459099"/>
     <hyperlink ref="F51" r:id="rId31" tooltip="2493626" display="http://au.element14.com/camdenboss/ctb0709-3/terminal-block-wire-to-brd-3pos/dp/2493626"/>
     <hyperlink ref="F50" r:id="rId32" tooltip="2493625" display="http://au.element14.com/camdenboss/ctb0709-2/terminal-block-wire-to-brd-2pos/dp/2493625"/>
+    <hyperlink ref="F62" r:id="rId33" tooltip="1301033" display="http://au.element14.com/amphenol-spectra-strip/135-2607-310/ribbon-cable-3c-10-core-per-m/dp/1301033"/>
+    <hyperlink ref="F61" r:id="rId34" tooltip="1387715" display="http://au.element14.com/pro-power/mcos5c24-ri-grey/cable-24awg-scrn-5core-per-m/dp/1387715"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3451,7 +3677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
@@ -4443,4 +4669,1446 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>588544</v>
+      </c>
+      <c r="E2">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE(D2,",",C2,",",A2,LEFT(B2,5))</f>
+        <v>588544,2,1X10_LOCK(blan</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1867950</v>
+      </c>
+      <c r="E3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H6" si="0">CONCATENATE(D3,",",C3,",",A3,LEFT(B3,5))</f>
+        <v>1867950,10,C12060.1uF</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4801880</v>
+      </c>
+      <c r="E4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>4801880,4,10n</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1759337</v>
+      </c>
+      <c r="E5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>1759337,10,1nF</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1759438</v>
+      </c>
+      <c r="E6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>1759438,4,1uF</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7">
+        <v>1.46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>588600</v>
+      </c>
+      <c r="E8">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ref="H8:H30" si="1">CONCATENATE(D8,",",C8,",",A8,LEFT(B8,5))</f>
+        <v>588600,1,DISP_CONNDISP_</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1687497</v>
+      </c>
+      <c r="E9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>1687497,4,DO214BA0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1383892</v>
+      </c>
+      <c r="E10">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>1383892,2,DO41-101N400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2346630</v>
+      </c>
+      <c r="E11">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>2346630,2,E5-8,547uF</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1749287</v>
+      </c>
+      <c r="E12">
+        <v>1.88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>1749287,4,JEDECDO-214ABLNBTV</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>2414111</v>
+      </c>
+      <c r="E13">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2414111,10,LED-1206FUSE </v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2333590</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>2333590,2,M12062k</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1646697</v>
+      </c>
+      <c r="E15">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>1646697,2,3k</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>588581</v>
+      </c>
+      <c r="E16">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>588581,4,MOLEX-1X3_LOCKSER</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2332114</v>
+      </c>
+      <c r="E17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>2332114,4,R120615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1">
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>2332118</v>
+      </c>
+      <c r="E18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>2332118,4,27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1">
+      <c r="B19">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1692544</v>
+      </c>
+      <c r="E19">
+        <v>0.04</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>1692544,2,33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1">
+      <c r="B20">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>2332120</v>
+      </c>
+      <c r="E20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>2332120,4,39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1">
+      <c r="B21">
+        <v>240</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1630578</v>
+      </c>
+      <c r="E21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>1630578,2,240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1">
+      <c r="B22">
+        <v>270</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>1470003</v>
+      </c>
+      <c r="E22">
+        <v>0.04</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>1470003,12,270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1">
+      <c r="B23">
+        <v>680</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1632597</v>
+      </c>
+      <c r="E23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>1632597,2,680</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>1632523</v>
+      </c>
+      <c r="E24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>1632523,30,10k</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>1811972</v>
+      </c>
+      <c r="E25">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>1811972,16,1k</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>1632543</v>
+      </c>
+      <c r="E26">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>1632543,12,20k</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>1632579</v>
+      </c>
+      <c r="E27">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>1632579,14,4.7k</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>2142268</v>
+      </c>
+      <c r="E28">
+        <v>0.02</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>2142268,4,40k</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1158086</v>
+      </c>
+      <c r="E29">
+        <v>0.05</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>1158086,2,56k</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1">
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1153324</v>
+      </c>
+      <c r="E30">
+        <v>0.23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>1153324,2,9k1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>1045451</v>
+      </c>
+      <c r="E32">
+        <v>2.96</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" ref="H32:H43" si="2">CONCATENATE(D32,",",C32,",",A32,LEFT(B32,5))</f>
+        <v>1045451,8,SO08-2OPTOI</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>2313197</v>
+      </c>
+      <c r="E33">
+        <v>22.63</v>
+      </c>
+      <c r="G33" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>2313197,4,SO8STRETCHACPLC</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1652366</v>
+      </c>
+      <c r="E34">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>1652366,2,SOT223V_REG</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>1459098</v>
+      </c>
+      <c r="E35">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>1459098,12,SOT23-3NPN_T</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>1459099</v>
+      </c>
+      <c r="E36">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>1459099,12,PNP_T</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1524325</v>
+      </c>
+      <c r="E37">
+        <v>2.21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>1524325,2,SWITCH-SPDT_KITDIRTY</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1">
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>1524325</v>
+      </c>
+      <c r="E38">
+        <v>2.21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>1524325,4,LOGIC</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>9846530</v>
+      </c>
+      <c r="E39">
+        <v>2.67</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>9846530,4,TO220VMOSFE</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1205065</v>
+      </c>
+      <c r="E40">
+        <v>25.3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" t="str">
+        <f>CONCATENATE(D40,",",C40,",",LEFT(A40,10),LEFT(B40,5))</f>
+        <v>1205065,3,TRACOPOWERTRACO</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2315261</v>
+      </c>
+      <c r="E41">
+        <v>6.51</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>2315261,2,W237-12P0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>2493625</v>
+      </c>
+      <c r="E42">
+        <v>0.66</v>
+      </c>
+      <c r="G42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>2493625,12,W237-1320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>2493626</v>
+      </c>
+      <c r="E43">
+        <v>0.98</v>
+      </c>
+      <c r="G43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>2493626,12,W237-1330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>4534633</v>
+      </c>
+      <c r="E45">
+        <v>0.188</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" ref="H45:H46" si="3">CONCATENATE(D45,",",C45,",",A45,LEFT(B45,5))</f>
+        <v>4534633,1,ZDIO-7.57.5V</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1">
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>1296705</v>
+      </c>
+      <c r="E46">
+        <v>1.58</v>
+      </c>
+      <c r="F46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="3"/>
+        <v>1296705,4,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47">
+        <v>15.09</v>
+      </c>
+      <c r="F47" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1">
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1098711</v>
+      </c>
+      <c r="E48">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="F48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" ref="H48:H51" si="4">CONCATENATE(D48,",",C48,",",A48,LEFT(B48,5))</f>
+        <v>1098711,2,</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" hidden="1">
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1773007</v>
+      </c>
+      <c r="E49">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="F49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="4"/>
+        <v>1773007,2,</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" hidden="1">
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>1387715</v>
+      </c>
+      <c r="E50">
+        <v>5.05</v>
+      </c>
+      <c r="F50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="4"/>
+        <v>1387715,3,</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" hidden="1">
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1301033</v>
+      </c>
+      <c r="E51">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F51" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="4"/>
+        <v>1301033,2,</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" hidden="1"/>
+    <row r="53" spans="3:8" hidden="1"/>
+    <row r="54" spans="3:8" hidden="1"/>
+    <row r="55" spans="3:8" hidden="1"/>
+    <row r="56" spans="3:8" hidden="1"/>
+    <row r="57" spans="3:8" hidden="1"/>
+    <row r="58" spans="3:8" hidden="1"/>
+    <row r="59" spans="3:8" hidden="1"/>
+  </sheetData>
+  <autoFilter ref="A1:G59">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="digikey"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="2" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>